--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -91,25 +91,25 @@
     <t>support</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>hand</t>
@@ -1121,25 +1121,25 @@
         <v>25</v>
       </c>
       <c r="K12">
-        <v>0.6796536796536796</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="M12">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="N12">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O12">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,25 +1147,25 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <v>0.6666666666666666</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L13">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1225,25 +1225,25 @@
         <v>29</v>
       </c>
       <c r="K16">
-        <v>0.5920245398773006</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L16">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="N16">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1251,25 +1251,25 @@
         <v>30</v>
       </c>
       <c r="K17">
-        <v>0.574468085106383</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1277,25 +1277,25 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.5681818181818182</v>
+        <v>0.5676470588235294</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="M18">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>38</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="10:17">
